--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Pdpn-Clec1b.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Pdpn-Clec1b.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,19 +76,19 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Pdpn</t>
+  </si>
+  <si>
+    <t>Clec1b</t>
+  </si>
+  <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Pdpn</t>
-  </si>
-  <si>
-    <t>Clec1b</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,31 +519,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>24</v>
       </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>5.553479333333335</v>
+        <v>53.570086</v>
       </c>
       <c r="H2">
-        <v>16.660438</v>
+        <v>160.710258</v>
       </c>
       <c r="I2">
-        <v>0.08774343403151484</v>
+        <v>0.927800950569834</v>
       </c>
       <c r="J2">
-        <v>0.08774343403151484</v>
+        <v>0.927800950569834</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>18.090773</v>
+        <v>1.450881</v>
       </c>
       <c r="N2">
-        <v>54.272319</v>
+        <v>4.352643</v>
       </c>
       <c r="O2">
-        <v>0.863694645379299</v>
+        <v>0.3369514394030648</v>
       </c>
       <c r="P2">
-        <v>0.863694645379299</v>
+        <v>0.3369514394030648</v>
       </c>
       <c r="Q2">
-        <v>100.4667339795247</v>
+        <v>77.72381994576601</v>
       </c>
       <c r="R2">
-        <v>904.200605815722</v>
+        <v>699.5143795118942</v>
       </c>
       <c r="S2">
-        <v>0.07578353414021112</v>
+        <v>0.3126238657740373</v>
       </c>
       <c r="T2">
-        <v>0.07578353414021112</v>
+        <v>0.3126238657740373</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,31 +581,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>5.553479333333335</v>
+        <v>53.570086</v>
       </c>
       <c r="H3">
-        <v>16.660438</v>
+        <v>160.710258</v>
       </c>
       <c r="I3">
-        <v>0.08774343403151484</v>
+        <v>0.927800950569834</v>
       </c>
       <c r="J3">
-        <v>0.08774343403151484</v>
+        <v>0.927800950569834</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>7.828531999999999</v>
       </c>
       <c r="O3">
-        <v>0.1245839738224655</v>
+        <v>0.6060306636250556</v>
       </c>
       <c r="P3">
-        <v>0.1245839738224654</v>
+        <v>0.6060306636250556</v>
       </c>
       <c r="Q3">
-        <v>14.49186355744622</v>
+        <v>139.7917108312507</v>
       </c>
       <c r="R3">
-        <v>130.426772017016</v>
+        <v>1258.125397481256</v>
       </c>
       <c r="S3">
-        <v>0.01093142568847547</v>
+        <v>0.5622758257857939</v>
       </c>
       <c r="T3">
-        <v>0.01093142568847547</v>
+        <v>0.5622758257857939</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,31 +643,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>5.553479333333335</v>
+        <v>53.570086</v>
       </c>
       <c r="H4">
-        <v>16.660438</v>
+        <v>160.710258</v>
       </c>
       <c r="I4">
-        <v>0.08774343403151484</v>
+        <v>0.927800950569834</v>
       </c>
       <c r="J4">
-        <v>0.08774343403151484</v>
+        <v>0.927800950569834</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.2455136666666666</v>
+        <v>0.2455136666666667</v>
       </c>
       <c r="N4">
-        <v>0.7365409999999999</v>
+        <v>0.736541</v>
       </c>
       <c r="O4">
-        <v>0.01172138079823555</v>
+        <v>0.05701789697187955</v>
       </c>
       <c r="P4">
-        <v>0.01172138079823555</v>
+        <v>0.05701789697187955</v>
       </c>
       <c r="Q4">
-        <v>1.363455073884222</v>
+        <v>13.15218823750867</v>
       </c>
       <c r="R4">
-        <v>12.271095664958</v>
+        <v>118.369694137578</v>
       </c>
       <c r="S4">
-        <v>0.001028474202828245</v>
+        <v>0.05290125901000271</v>
       </c>
       <c r="T4">
-        <v>0.001028474202828245</v>
+        <v>0.05290125901000271</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,14 +705,14 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>24</v>
       </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
       <c r="E5">
         <v>3</v>
       </c>
@@ -720,16 +720,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>53.570086</v>
+        <v>4.168684333333334</v>
       </c>
       <c r="H5">
-        <v>160.710258</v>
+        <v>12.506053</v>
       </c>
       <c r="I5">
-        <v>0.8463925090691331</v>
+        <v>0.07219904943016597</v>
       </c>
       <c r="J5">
-        <v>0.846392509069133</v>
+        <v>0.07219904943016596</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>18.090773</v>
+        <v>1.450881</v>
       </c>
       <c r="N5">
-        <v>54.272319</v>
+        <v>4.352643</v>
       </c>
       <c r="O5">
-        <v>0.863694645379299</v>
+        <v>0.3369514394030648</v>
       </c>
       <c r="P5">
-        <v>0.863694645379299</v>
+        <v>0.3369514394030648</v>
       </c>
       <c r="Q5">
-        <v>969.124265416478</v>
+        <v>6.048264894231002</v>
       </c>
       <c r="R5">
-        <v>8722.118388748302</v>
+        <v>54.43438404807901</v>
       </c>
       <c r="S5">
-        <v>0.73102467797216</v>
+        <v>0.02432757362902745</v>
       </c>
       <c r="T5">
-        <v>0.7310246779721599</v>
+        <v>0.02432757362902744</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,13 +767,13 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>53.570086</v>
+        <v>4.168684333333334</v>
       </c>
       <c r="H6">
-        <v>160.710258</v>
+        <v>12.506053</v>
       </c>
       <c r="I6">
-        <v>0.8463925090691331</v>
+        <v>0.07219904943016597</v>
       </c>
       <c r="J6">
-        <v>0.846392509069133</v>
+        <v>0.07219904943016596</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>7.828531999999999</v>
       </c>
       <c r="O6">
-        <v>0.1245839738224655</v>
+        <v>0.6060306636250556</v>
       </c>
       <c r="P6">
-        <v>0.1245839738224654</v>
+        <v>0.6060306636250556</v>
       </c>
       <c r="Q6">
-        <v>139.7917108312507</v>
+        <v>10.87822623379956</v>
       </c>
       <c r="R6">
-        <v>1258.125397481256</v>
+        <v>97.904036104196</v>
       </c>
       <c r="S6">
-        <v>0.1054469421933997</v>
+        <v>0.04375483783926168</v>
       </c>
       <c r="T6">
-        <v>0.1054469421933997</v>
+        <v>0.04375483783926167</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,13 +829,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -844,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>53.570086</v>
+        <v>4.168684333333334</v>
       </c>
       <c r="H7">
-        <v>160.710258</v>
+        <v>12.506053</v>
       </c>
       <c r="I7">
-        <v>0.8463925090691331</v>
+        <v>0.07219904943016597</v>
       </c>
       <c r="J7">
-        <v>0.846392509069133</v>
+        <v>0.07219904943016596</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,214 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.2455136666666666</v>
+        <v>0.2455136666666667</v>
       </c>
       <c r="N7">
-        <v>0.7365409999999999</v>
+        <v>0.736541</v>
       </c>
       <c r="O7">
-        <v>0.01172138079823555</v>
+        <v>0.05701789697187955</v>
       </c>
       <c r="P7">
-        <v>0.01172138079823555</v>
+        <v>0.05701789697187955</v>
       </c>
       <c r="Q7">
-        <v>13.15218823750867</v>
+        <v>1.023468975852556</v>
       </c>
       <c r="R7">
-        <v>118.369694137578</v>
+        <v>9.211220782673001</v>
       </c>
       <c r="S7">
-        <v>0.009920888903573342</v>
+        <v>0.004116637961876842</v>
       </c>
       <c r="T7">
-        <v>0.009920888903573342</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>4.168684333333334</v>
-      </c>
-      <c r="H8">
-        <v>12.506053</v>
-      </c>
-      <c r="I8">
-        <v>0.06586405689935212</v>
-      </c>
-      <c r="J8">
-        <v>0.06586405689935211</v>
-      </c>
-      <c r="K8">
-        <v>3</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>18.090773</v>
-      </c>
-      <c r="N8">
-        <v>54.272319</v>
-      </c>
-      <c r="O8">
-        <v>0.863694645379299</v>
-      </c>
-      <c r="P8">
-        <v>0.863694645379299</v>
-      </c>
-      <c r="Q8">
-        <v>75.41472198298968</v>
-      </c>
-      <c r="R8">
-        <v>678.732497846907</v>
-      </c>
-      <c r="S8">
-        <v>0.0568864332669279</v>
-      </c>
-      <c r="T8">
-        <v>0.05688643326692789</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>4.168684333333334</v>
-      </c>
-      <c r="H9">
-        <v>12.506053</v>
-      </c>
-      <c r="I9">
-        <v>0.06586405689935212</v>
-      </c>
-      <c r="J9">
-        <v>0.06586405689935211</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>2.609510666666667</v>
-      </c>
-      <c r="N9">
-        <v>7.828531999999999</v>
-      </c>
-      <c r="O9">
-        <v>0.1245839738224655</v>
-      </c>
-      <c r="P9">
-        <v>0.1245839738224654</v>
-      </c>
-      <c r="Q9">
-        <v>10.87822623379956</v>
-      </c>
-      <c r="R9">
-        <v>97.904036104196</v>
-      </c>
-      <c r="S9">
-        <v>0.00820560594059026</v>
-      </c>
-      <c r="T9">
-        <v>0.008205605940590258</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>4.168684333333334</v>
-      </c>
-      <c r="H10">
-        <v>12.506053</v>
-      </c>
-      <c r="I10">
-        <v>0.06586405689935212</v>
-      </c>
-      <c r="J10">
-        <v>0.06586405689935211</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>0.2455136666666666</v>
-      </c>
-      <c r="N10">
-        <v>0.7365409999999999</v>
-      </c>
-      <c r="O10">
-        <v>0.01172138079823555</v>
-      </c>
-      <c r="P10">
-        <v>0.01172138079823555</v>
-      </c>
-      <c r="Q10">
-        <v>1.023468975852556</v>
-      </c>
-      <c r="R10">
-        <v>9.211220782672999</v>
-      </c>
-      <c r="S10">
-        <v>0.0007720176918339595</v>
-      </c>
-      <c r="T10">
-        <v>0.0007720176918339593</v>
+        <v>0.004116637961876841</v>
       </c>
     </row>
   </sheetData>
